--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C230024-7EAD-4EF1-BACB-0A4B44F3F1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBBDCD4-E583-48A1-B0DF-965C6A9C74AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Count</t>
   </si>
@@ -91,6 +91,24 @@
   </si>
   <si>
     <t>(Tolerance) partial functionality</t>
+  </si>
+  <si>
+    <t>Concurrency</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>(Concurrency) locks</t>
+  </si>
+  <si>
+    <t>Async Wait</t>
+  </si>
+  <si>
+    <t>(Async Wait) added waitFor</t>
+  </si>
+  <si>
+    <t>(Memory) added memory for test</t>
   </si>
 </sst>
 </file>
@@ -441,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:F24"/>
+  <dimension ref="B3:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -488,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -526,6 +544,12 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
@@ -534,6 +558,12 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
@@ -557,6 +587,30 @@
         <v>2</v>
       </c>
     </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>4</v>
@@ -594,7 +648,7 @@
         <v>12</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.35">
@@ -611,6 +665,14 @@
       </c>
       <c r="C24">
         <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBBDCD4-E583-48A1-B0DF-965C6A9C74AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2E7F80-887D-4196-AF13-E36FEEBEE377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Count</t>
   </si>
@@ -57,12 +57,6 @@
     <t>TypeScript</t>
   </si>
   <si>
-    <t>Dependencies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Dependencies) update </t>
-  </si>
-  <si>
     <t>Python</t>
   </si>
   <si>
@@ -109,6 +103,27 @@
   </si>
   <si>
     <t>(Memory) added memory for test</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>Delay</t>
+  </si>
+  <si>
+    <t>(Delay) add custom delay / wait</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>Kotlin</t>
+  </si>
+  <si>
+    <t>Dependencies / Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Dependencies / Environment) update </t>
   </si>
 </sst>
 </file>
@@ -459,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:F25"/>
+  <dimension ref="B3:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -492,13 +507,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
@@ -517,27 +532,27 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -545,35 +560,41 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
         <v>18</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E10" t="s">
-        <v>20</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -581,7 +602,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -589,7 +610,7 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -597,18 +618,26 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F14">
         <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.35">
@@ -632,7 +661,7 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.35">
@@ -645,7 +674,7 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -653,7 +682,7 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -661,7 +690,7 @@
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -669,10 +698,34 @@
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25">
         <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2E7F80-887D-4196-AF13-E36FEEBEE377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AC6F41-77FA-4C78-9A81-A7E39601948B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Count</t>
   </si>
@@ -124,6 +124,18 @@
   </si>
   <si>
     <t xml:space="preserve">(Dependencies / Environment) update </t>
+  </si>
+  <si>
+    <t>Clojure</t>
+  </si>
+  <si>
+    <t>Collections</t>
+  </si>
+  <si>
+    <t>(Collections) sort / establish ordering</t>
+  </si>
+  <si>
+    <t>(Collections) limit elements</t>
   </si>
 </sst>
 </file>
@@ -190,8 +202,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}" name="Table13" displayName="Table13" ref="E3:F16" totalsRowShown="0">
-  <autoFilter ref="E3:F16" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}" name="Table13" displayName="Table13" ref="E3:F17" totalsRowShown="0">
+  <autoFilter ref="E3:F17" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{5D3E98C6-B9C7-4DB9-B67A-0ED3228E11E1}" name="RQ2: Fix for Flakiness?"/>
     <tableColumn id="2" xr3:uid="{829AB046-7D25-4B45-ADCD-65F6668ED8A6}" name="Count"/>
@@ -474,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:F28"/>
+  <dimension ref="B3:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -507,13 +519,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
@@ -563,7 +575,7 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -601,6 +613,12 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
       <c r="E11" t="s">
         <v>19</v>
       </c>
@@ -613,7 +631,7 @@
         <v>22</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
@@ -640,7 +658,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>4</v>
       </c>
@@ -648,7 +682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>5</v>
       </c>
@@ -656,7 +690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>6</v>
       </c>
@@ -664,7 +698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>9</v>
       </c>
@@ -672,15 +706,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="C22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>15</v>
       </c>
@@ -688,7 +722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>17</v>
       </c>
@@ -696,7 +730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>21</v>
       </c>
@@ -704,7 +738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>26</v>
       </c>
@@ -712,20 +746,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>29</v>
       </c>
       <c r="C27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>30</v>
       </c>
       <c r="C28">
         <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AC6F41-77FA-4C78-9A81-A7E39601948B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15752ED-0E68-4B97-AD84-6D4253B6EBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Count</t>
   </si>
@@ -136,6 +136,21 @@
   </si>
   <si>
     <t>(Collections) limit elements</t>
+  </si>
+  <si>
+    <t>Bit Manipulation / Arithmetic</t>
+  </si>
+  <si>
+    <t>(Bit Manipulation / Arithmetic) bit clear</t>
+  </si>
+  <si>
+    <t>(Concurrency) update global state</t>
+  </si>
+  <si>
+    <t>Rust</t>
+  </si>
+  <si>
+    <t>(Async Wait) Promise statement</t>
   </si>
 </sst>
 </file>
@@ -202,8 +217,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}" name="Table13" displayName="Table13" ref="E3:F17" totalsRowShown="0">
-  <autoFilter ref="E3:F17" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}" name="Table13" displayName="Table13" ref="E3:F20" totalsRowShown="0">
+  <autoFilter ref="E3:F20" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{5D3E98C6-B9C7-4DB9-B67A-0ED3228E11E1}" name="RQ2: Fix for Flakiness?"/>
     <tableColumn id="2" xr3:uid="{829AB046-7D25-4B45-ADCD-65F6668ED8A6}" name="Count"/>
@@ -213,8 +228,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5DC2FD8C-971C-4E9C-B125-F25DCFBD1121}" name="Table3" displayName="Table3" ref="B18:C29" totalsRowShown="0">
-  <autoFilter ref="B18:C29" xr:uid="{5DC2FD8C-971C-4E9C-B125-F25DCFBD1121}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5DC2FD8C-971C-4E9C-B125-F25DCFBD1121}" name="Table3" displayName="Table3" ref="B18:C30" totalsRowShown="0">
+  <autoFilter ref="B18:C30" xr:uid="{5DC2FD8C-971C-4E9C-B125-F25DCFBD1121}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F0068822-083B-4BDB-99B5-6ACC44D4E438}" name="Programming Language"/>
     <tableColumn id="2" xr3:uid="{840AB94B-1139-41EF-B336-F06393B2838D}" name="Count"/>
@@ -486,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:F29"/>
+  <dimension ref="B3:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -519,13 +534,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
@@ -533,13 +548,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
@@ -547,13 +562,13 @@
         <v>31</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
@@ -561,13 +576,13 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
@@ -575,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -589,13 +604,13 @@
         <v>23</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
@@ -603,7 +618,7 @@
         <v>27</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -617,7 +632,7 @@
         <v>34</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
@@ -627,6 +642,12 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
       <c r="E12" t="s">
         <v>22</v>
       </c>
@@ -639,7 +660,7 @@
         <v>24</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
@@ -655,7 +676,7 @@
         <v>28</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
@@ -663,7 +684,7 @@
         <v>35</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
@@ -681,6 +702,12 @@
       <c r="C18" t="s">
         <v>0</v>
       </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
@@ -689,6 +716,12 @@
       <c r="C19">
         <v>1</v>
       </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
@@ -697,13 +730,19 @@
       <c r="C20">
         <v>10</v>
       </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>9</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
@@ -711,7 +750,7 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
@@ -719,7 +758,7 @@
         <v>15</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
@@ -735,7 +774,7 @@
         <v>21</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
@@ -751,7 +790,7 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
@@ -759,7 +798,7 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
@@ -768,6 +807,14 @@
       </c>
       <c r="C29">
         <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15752ED-0E68-4B97-AD84-6D4253B6EBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0190062-8770-4278-AC92-E303A16D32D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   <dimension ref="B3:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -576,13 +576,13 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0190062-8770-4278-AC92-E303A16D32D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD13D92-ADB5-40DD-AF27-45DD48403BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -534,13 +534,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
@@ -714,7 +714,7 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
         <v>39</v>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD13D92-ADB5-40DD-AF27-45DD48403BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31B937D-B77A-4852-BD1A-0D4B16060ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Count</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>(Async Wait) Promise statement</t>
+  </si>
+  <si>
+    <t>(Dependencies / Environment) remove dependencies</t>
   </si>
 </sst>
 </file>
@@ -217,8 +220,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}" name="Table13" displayName="Table13" ref="E3:F20" totalsRowShown="0">
-  <autoFilter ref="E3:F20" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}" name="Table13" displayName="Table13" ref="E3:F21" totalsRowShown="0">
+  <autoFilter ref="E3:F21" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{5D3E98C6-B9C7-4DB9-B67A-0ED3228E11E1}" name="RQ2: Fix for Flakiness?"/>
     <tableColumn id="2" xr3:uid="{829AB046-7D25-4B45-ADCD-65F6668ED8A6}" name="Count"/>
@@ -503,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -562,7 +565,7 @@
         <v>31</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
@@ -744,6 +747,12 @@
       <c r="C21">
         <v>4</v>
       </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
@@ -782,7 +791,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31B937D-B77A-4852-BD1A-0D4B16060ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7FD0E0-9981-4E48-A132-F96A89ADB251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -537,13 +537,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
@@ -759,7 +759,7 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7FD0E0-9981-4E48-A132-F96A89ADB251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BA75E1-5BB0-4FF5-9D97-7862B12FE0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,7 +506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -607,7 +607,7 @@
         <v>23</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -663,7 +663,7 @@
         <v>24</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
@@ -759,7 +759,7 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BA75E1-5BB0-4FF5-9D97-7862B12FE0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6E39B8-83C7-414E-A6F5-34856F1A6235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Count</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>(Dependencies / Environment) remove dependencies</t>
+  </si>
+  <si>
+    <t>Comparisons</t>
+  </si>
+  <si>
+    <t>(Comparisons) same type</t>
   </si>
 </sst>
 </file>
@@ -220,8 +226,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}" name="Table13" displayName="Table13" ref="E3:F21" totalsRowShown="0">
-  <autoFilter ref="E3:F21" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}" name="Table13" displayName="Table13" ref="E3:F22" totalsRowShown="0">
+  <autoFilter ref="E3:F22" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{5D3E98C6-B9C7-4DB9-B67A-0ED3228E11E1}" name="RQ2: Fix for Flakiness?"/>
     <tableColumn id="2" xr3:uid="{829AB046-7D25-4B45-ADCD-65F6668ED8A6}" name="Count"/>
@@ -506,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -659,6 +665,12 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
       <c r="E13" t="s">
         <v>24</v>
       </c>
@@ -761,6 +773,12 @@
       <c r="C22">
         <v>10</v>
       </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
@@ -791,7 +809,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6E39B8-83C7-414E-A6F5-34856F1A6235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85805EA0-DD0D-42EF-92D0-AAEDB04869B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -585,7 +585,7 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -633,7 +633,7 @@
         <v>18</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
@@ -757,7 +757,7 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
         <v>42</v>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85805EA0-DD0D-42EF-92D0-AAEDB04869B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5651B5-99C0-400E-93BB-1BEADF0598C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,7 +513,7 @@
   <dimension ref="B3:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -613,7 +613,7 @@
         <v>23</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -675,7 +675,7 @@
         <v>24</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
@@ -817,7 +817,7 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5651B5-99C0-400E-93BB-1BEADF0598C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DD551D-AFBC-41DD-96BD-8AE312D8A421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -627,7 +627,7 @@
         <v>27</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -691,7 +691,7 @@
         <v>28</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
@@ -817,7 +817,7 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DD551D-AFBC-41DD-96BD-8AE312D8A421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769D806E-33AE-4A57-AF9D-316BD06D5A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Count</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>(Comparisons) same type</t>
+  </si>
+  <si>
+    <t>(Bit Manipulation / Arithmetic) no hardcoded values</t>
   </si>
 </sst>
 </file>
@@ -226,8 +229,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}" name="Table13" displayName="Table13" ref="E3:F22" totalsRowShown="0">
-  <autoFilter ref="E3:F22" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}" name="Table13" displayName="Table13" ref="E3:F23" totalsRowShown="0">
+  <autoFilter ref="E3:F23" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{5D3E98C6-B9C7-4DB9-B67A-0ED3228E11E1}" name="RQ2: Fix for Flakiness?"/>
     <tableColumn id="2" xr3:uid="{829AB046-7D25-4B45-ADCD-65F6668ED8A6}" name="Count"/>
@@ -512,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -655,7 +658,7 @@
         <v>37</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
         <v>22</v>
@@ -787,6 +790,12 @@
       <c r="C23">
         <v>5</v>
       </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
@@ -801,7 +810,7 @@
         <v>21</v>
       </c>
       <c r="C25">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769D806E-33AE-4A57-AF9D-316BD06D5A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F65F06-7ED1-41FF-A3CD-9C567CC23FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,7 +516,7 @@
   <dimension ref="B3:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -630,7 +630,7 @@
         <v>27</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -694,7 +694,7 @@
         <v>28</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
@@ -834,7 +834,7 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F65F06-7ED1-41FF-A3CD-9C567CC23FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA5EBA4-9F6A-41F2-ACF0-FE79010D5C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>(Order of Events) implement event ordering</t>
   </si>
   <si>
-    <t>(Tolerance) Increase acceptance levels in assert statements</t>
-  </si>
-  <si>
     <t>(Tolerance) update conditionals</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>(Bit Manipulation / Arithmetic) no hardcoded values</t>
+  </si>
+  <si>
+    <t>(Tolerance) relax acceptance/tolerance</t>
   </si>
 </sst>
 </file>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -546,13 +546,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
@@ -571,13 +571,13 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -599,13 +599,13 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -613,13 +613,13 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -627,13 +627,13 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10">
         <v>11</v>
@@ -641,13 +641,13 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -655,13 +655,13 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -669,13 +669,13 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13">
         <v>9</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -735,7 +735,7 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -749,7 +749,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -763,7 +763,7 @@
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -777,7 +777,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -785,13 +785,13 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25">
         <v>19</v>
@@ -815,15 +815,15 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>9</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28">
         <v>8</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30">
         <v>1</v>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA5EBA4-9F6A-41F2-ACF0-FE79010D5C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94611CE-8C4D-4B46-B3DC-DC9DFA2193B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -630,7 +630,7 @@
         <v>26</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
@@ -694,7 +694,7 @@
         <v>27</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
@@ -760,7 +760,7 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
         <v>41</v>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94611CE-8C4D-4B46-B3DC-DC9DFA2193B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E14487-A37D-4A3E-9099-B7A3525FE8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,7 +516,7 @@
   <dimension ref="B3:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -630,7 +630,7 @@
         <v>26</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
@@ -694,7 +694,7 @@
         <v>27</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
@@ -760,7 +760,7 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
         <v>41</v>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E14487-A37D-4A3E-9099-B7A3525FE8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5582AF35-DD65-46FB-BAF7-C4D64A5328A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -36,9 +47,6 @@
     <t>RQ2: Fix for Flakiness?</t>
   </si>
   <si>
-    <t>Tolerance</t>
-  </si>
-  <si>
     <t>Programming Language</t>
   </si>
   <si>
@@ -51,9 +59,6 @@
     <t>Memory</t>
   </si>
   <si>
-    <t>(Memory) deallocate unused space</t>
-  </si>
-  <si>
     <t>TypeScript</t>
   </si>
   <si>
@@ -63,54 +68,27 @@
     <t>Order of Events</t>
   </si>
   <si>
-    <t>(Order of Events) implement event ordering</t>
-  </si>
-  <si>
-    <t>(Tolerance) update conditionals</t>
-  </si>
-  <si>
     <t>JavaScript</t>
   </si>
   <si>
-    <t>(Order of Events) setup state</t>
-  </si>
-  <si>
     <t>Java</t>
   </si>
   <si>
-    <t>(Order of Events) tear down state after shutdown</t>
-  </si>
-  <si>
-    <t>(Tolerance) partial functionality</t>
-  </si>
-  <si>
     <t>Concurrency</t>
   </si>
   <si>
     <t>C++</t>
   </si>
   <si>
-    <t>(Concurrency) locks</t>
-  </si>
-  <si>
     <t>Async Wait</t>
   </si>
   <si>
-    <t>(Async Wait) added waitFor</t>
-  </si>
-  <si>
-    <t>(Memory) added memory for test</t>
-  </si>
-  <si>
     <t>C#</t>
   </si>
   <si>
     <t>Delay</t>
   </si>
   <si>
-    <t>(Delay) add custom delay / wait</t>
-  </si>
-  <si>
     <t>Go</t>
   </si>
   <si>
@@ -120,49 +98,82 @@
     <t>Dependencies / Environment</t>
   </si>
   <si>
-    <t xml:space="preserve">(Dependencies / Environment) update </t>
-  </si>
-  <si>
     <t>Clojure</t>
   </si>
   <si>
     <t>Collections</t>
   </si>
   <si>
-    <t>(Collections) sort / establish ordering</t>
-  </si>
-  <si>
-    <t>(Collections) limit elements</t>
-  </si>
-  <si>
     <t>Bit Manipulation / Arithmetic</t>
   </si>
   <si>
-    <t>(Bit Manipulation / Arithmetic) bit clear</t>
-  </si>
-  <si>
-    <t>(Concurrency) update global state</t>
-  </si>
-  <si>
     <t>Rust</t>
   </si>
   <si>
-    <t>(Async Wait) Promise statement</t>
-  </si>
-  <si>
-    <t>(Dependencies / Environment) remove dependencies</t>
-  </si>
-  <si>
     <t>Comparisons</t>
   </si>
   <si>
-    <t>(Comparisons) same type</t>
-  </si>
-  <si>
-    <t>(Bit Manipulation / Arithmetic) no hardcoded values</t>
-  </si>
-  <si>
-    <t>(Tolerance) relax acceptance/tolerance</t>
+    <t>Algorithmic Flakiness</t>
+  </si>
+  <si>
+    <t>Incorrect Logic</t>
+  </si>
+  <si>
+    <t>relax acceptance/tolerance</t>
+  </si>
+  <si>
+    <t>deallocate unused space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update </t>
+  </si>
+  <si>
+    <t>implement event ordering</t>
+  </si>
+  <si>
+    <t>refactor program logic</t>
+  </si>
+  <si>
+    <t>setup state</t>
+  </si>
+  <si>
+    <t>tear down state after shutdown</t>
+  </si>
+  <si>
+    <t>no hardcoded values</t>
+  </si>
+  <si>
+    <t>same type</t>
+  </si>
+  <si>
+    <t>remove dependencies</t>
+  </si>
+  <si>
+    <t>Promise statement</t>
+  </si>
+  <si>
+    <t>update global state</t>
+  </si>
+  <si>
+    <t>bit clear</t>
+  </si>
+  <si>
+    <t>limit elements</t>
+  </si>
+  <si>
+    <t>sort / establish ordering</t>
+  </si>
+  <si>
+    <t>add custom delay / wait</t>
+  </si>
+  <si>
+    <t>added memory for test</t>
+  </si>
+  <si>
+    <t>added waitFor</t>
+  </si>
+  <si>
+    <t>locks</t>
   </si>
 </sst>
 </file>
@@ -218,8 +229,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B2608637-C130-4393-ABCD-A6A790E1F84A}" name="Table1" displayName="Table1" ref="B3:C16" totalsRowShown="0">
-  <autoFilter ref="B3:C16" xr:uid="{B2608637-C130-4393-ABCD-A6A790E1F84A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B2608637-C130-4393-ABCD-A6A790E1F84A}" name="Table1" displayName="Table1" ref="B3:C15" totalsRowShown="0">
+  <autoFilter ref="B3:C15" xr:uid="{B2608637-C130-4393-ABCD-A6A790E1F84A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{587C579E-36BB-4E18-8383-3274037924AE}" name="RQ1: Cause of Flakiness?"/>
     <tableColumn id="2" xr3:uid="{610F1FAF-8A7C-411F-A63E-63F53C704DC1}" name="Count"/>
@@ -229,8 +240,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}" name="Table13" displayName="Table13" ref="E3:F23" totalsRowShown="0">
-  <autoFilter ref="E3:F23" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}" name="Table13" displayName="Table13" ref="E3:F23" totalsRowCount="1">
+  <autoFilter ref="E3:F22" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{5D3E98C6-B9C7-4DB9-B67A-0ED3228E11E1}" name="RQ2: Fix for Flakiness?"/>
     <tableColumn id="2" xr3:uid="{829AB046-7D25-4B45-ADCD-65F6668ED8A6}" name="Count"/>
@@ -240,8 +251,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5DC2FD8C-971C-4E9C-B125-F25DCFBD1121}" name="Table3" displayName="Table3" ref="B18:C30" totalsRowShown="0">
-  <autoFilter ref="B18:C30" xr:uid="{5DC2FD8C-971C-4E9C-B125-F25DCFBD1121}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5DC2FD8C-971C-4E9C-B125-F25DCFBD1121}" name="Table3" displayName="Table3" ref="B17:C29" totalsRowShown="0">
+  <autoFilter ref="B17:C29" xr:uid="{5DC2FD8C-971C-4E9C-B125-F25DCFBD1121}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F0068822-083B-4BDB-99B5-6ACC44D4E438}" name="Programming Language"/>
     <tableColumn id="2" xr3:uid="{840AB94B-1139-41EF-B336-F06393B2838D}" name="Count"/>
@@ -513,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:F30"/>
+  <dimension ref="B3:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -543,27 +554,27 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F4">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -571,13 +582,13 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -585,13 +596,13 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F7">
         <v>8</v>
@@ -599,27 +610,27 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8">
         <v>13</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -627,13 +638,13 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F10">
         <v>11</v>
@@ -641,73 +652,85 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
         <v>42</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
       <c r="F14">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -717,11 +740,11 @@
       <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C18" t="s">
-        <v>0</v>
+      <c r="C18">
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -732,10 +755,10 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -743,30 +766,30 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20">
         <v>6</v>
-      </c>
-      <c r="C20">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F21">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
@@ -774,82 +797,68 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="E23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30">
         <v>1</v>
       </c>
     </row>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5582AF35-DD65-46FB-BAF7-C4D64A5328A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F34C39-CFBF-47A3-940C-1D06E0DD0217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -619,7 +619,7 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
@@ -697,7 +697,7 @@
         <v>26</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
         <v>42</v>
@@ -741,7 +741,7 @@
         <v>4</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
         <v>38</v>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F34C39-CFBF-47A3-940C-1D06E0DD0217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677E279B-22B1-411E-A0E2-CC5B638597CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -619,7 +619,7 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
@@ -697,7 +697,7 @@
         <v>26</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
         <v>42</v>
@@ -811,7 +811,7 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677E279B-22B1-411E-A0E2-CC5B638597CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADE1542-F621-4D67-A034-CE7BB45733B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,7 +527,7 @@
   <dimension ref="B3:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -619,7 +619,7 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
@@ -697,7 +697,7 @@
         <v>26</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
         <v>42</v>
@@ -741,7 +741,7 @@
         <v>4</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
         <v>38</v>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADE1542-F621-4D67-A034-CE7BB45733B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1387CA81-6CBA-4A5B-B708-C7F35E55B192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,9 +125,6 @@
     <t>deallocate unused space</t>
   </si>
   <si>
-    <t xml:space="preserve">update </t>
-  </si>
-  <si>
     <t>implement event ordering</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>locks</t>
+  </si>
+  <si>
+    <t>update dependencies</t>
   </si>
 </sst>
 </file>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -588,7 +588,7 @@
         <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -602,7 +602,7 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7">
         <v>8</v>
@@ -613,10 +613,10 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8">
         <v>17</v>
@@ -630,7 +630,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -644,7 +644,7 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10">
         <v>11</v>
@@ -658,7 +658,7 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -672,10 +672,10 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
@@ -686,7 +686,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14">
         <v>7</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -758,7 +758,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -769,10 +769,10 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -786,7 +786,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -800,7 +800,7 @@
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22">
         <v>2</v>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1387CA81-6CBA-4A5B-B708-C7F35E55B192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C95879-F4A0-4900-AC39-92B62A9427B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -613,7 +613,7 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
@@ -675,7 +675,7 @@
         <v>43</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
@@ -797,7 +797,7 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
         <v>33</v>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C95879-F4A0-4900-AC39-92B62A9427B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BFB2A9-9BA7-477D-BFA2-8A5B0AB2FA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Count</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>update dependencies</t>
+  </si>
+  <si>
+    <t>add retry</t>
   </si>
 </sst>
 </file>
@@ -240,8 +243,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}" name="Table13" displayName="Table13" ref="E3:F23" totalsRowCount="1">
-  <autoFilter ref="E3:F22" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}" name="Table13" displayName="Table13" ref="E3:F23" totalsRowShown="0">
+  <autoFilter ref="E3:F23" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{5D3E98C6-B9C7-4DB9-B67A-0ED3228E11E1}" name="RQ2: Fix for Flakiness?"/>
     <tableColumn id="2" xr3:uid="{829AB046-7D25-4B45-ADCD-65F6668ED8A6}" name="Count"/>
@@ -526,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -613,7 +616,7 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
@@ -769,7 +772,7 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
         <v>35</v>
@@ -813,6 +816,12 @@
       <c r="C23">
         <v>10</v>
       </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
@@ -864,10 +873,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="3">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BFB2A9-9BA7-477D-BFA2-8A5B0AB2FA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5C0398-DF14-48C5-810D-1BCEA05956F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -616,7 +616,7 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
@@ -630,7 +630,7 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
         <v>31</v>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5C0398-DF14-48C5-810D-1BCEA05956F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD4C008-6D62-4E8A-8E6D-CF345A7BCD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -574,7 +574,7 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
@@ -594,7 +594,7 @@
         <v>45</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
@@ -828,7 +828,7 @@
         <v>13</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD4C008-6D62-4E8A-8E6D-CF345A7BCD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A2EF22-240C-431D-9952-E001702AC30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="B3:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -622,7 +622,7 @@
         <v>30</v>
       </c>
       <c r="F8">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
@@ -700,7 +700,7 @@
         <v>26</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
         <v>41</v>
@@ -814,7 +814,7 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
         <v>46</v>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A2EF22-240C-431D-9952-E001702AC30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBA07E4-24F3-408D-AAA2-9EF6A845E6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5DC2FD8C-971C-4E9C-B125-F25DCFBD1121}" name="Table3" displayName="Table3" ref="B17:C29" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5DC2FD8C-971C-4E9C-B125-F25DCFBD1121}" name="Table3" displayName="Table3" ref="B17:C30" totalsRowCount="1">
   <autoFilter ref="B17:C29" xr:uid="{5DC2FD8C-971C-4E9C-B125-F25DCFBD1121}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F0068822-083B-4BDB-99B5-6ACC44D4E438}" name="Programming Language"/>
@@ -588,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
@@ -622,7 +622,7 @@
         <v>30</v>
       </c>
       <c r="F8">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
@@ -814,7 +814,7 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
         <v>46</v>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBA07E4-24F3-408D-AAA2-9EF6A845E6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C39BA8-D678-418B-9EF6-731075B1A0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="B3:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -616,7 +616,7 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
@@ -678,7 +678,7 @@
         <v>43</v>
       </c>
       <c r="F12">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
@@ -814,7 +814,7 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
         <v>46</v>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C39BA8-D678-418B-9EF6-731075B1A0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A875F4-91BC-4101-8879-1BF493A2A49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -616,7 +616,7 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
@@ -706,7 +706,7 @@
         <v>41</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
@@ -828,7 +828,7 @@
         <v>13</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A875F4-91BC-4101-8879-1BF493A2A49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA2DDA3-0C50-4F58-B629-8CD6BB09E4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="B3:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -574,7 +574,7 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
@@ -706,7 +706,7 @@
         <v>41</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
@@ -852,7 +852,7 @@
         <v>18</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA2DDA3-0C50-4F58-B629-8CD6BB09E4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E652CBA1-69EF-48C4-A7DB-EDD5AD262241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Count</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>add retry</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -254,8 +257,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5DC2FD8C-971C-4E9C-B125-F25DCFBD1121}" name="Table3" displayName="Table3" ref="B17:C30" totalsRowCount="1">
-  <autoFilter ref="B17:C29" xr:uid="{5DC2FD8C-971C-4E9C-B125-F25DCFBD1121}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5DC2FD8C-971C-4E9C-B125-F25DCFBD1121}" name="Table3" displayName="Table3" ref="B17:C30" totalsRowShown="0">
+  <autoFilter ref="B17:C30" xr:uid="{5DC2FD8C-971C-4E9C-B125-F25DCFBD1121}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F0068822-083B-4BDB-99B5-6ACC44D4E438}" name="Programming Language"/>
     <tableColumn id="2" xr3:uid="{840AB94B-1139-41EF-B336-F06393B2838D}" name="Count"/>
@@ -527,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:F29"/>
+  <dimension ref="B3:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -588,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
@@ -678,7 +681,7 @@
         <v>43</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
@@ -869,6 +872,14 @@
       </c>
       <c r="C29">
         <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E652CBA1-69EF-48C4-A7DB-EDD5AD262241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481A87F1-2AEC-4EDA-B503-2731C114D29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -625,7 +625,7 @@
         <v>30</v>
       </c>
       <c r="F8">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
@@ -703,7 +703,7 @@
         <v>26</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
         <v>41</v>
@@ -817,7 +817,7 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
         <v>46</v>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481A87F1-2AEC-4EDA-B503-2731C114D29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E71B63-EF34-4CEC-B73D-4D3F1AE9C789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -591,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
@@ -709,7 +709,7 @@
         <v>41</v>
       </c>
       <c r="F14">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
@@ -847,7 +847,7 @@
         <v>17</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E71B63-EF34-4CEC-B73D-4D3F1AE9C789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B04CCE-7E54-4733-A8FC-7AE578A5D645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5DC2FD8C-971C-4E9C-B125-F25DCFBD1121}" name="Table3" displayName="Table3" ref="B17:C30" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5DC2FD8C-971C-4E9C-B125-F25DCFBD1121}" name="Table3" displayName="Table3" ref="B17:C31" totalsRowCount="1">
   <autoFilter ref="B17:C30" xr:uid="{5DC2FD8C-971C-4E9C-B125-F25DCFBD1121}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F0068822-083B-4BDB-99B5-6ACC44D4E438}" name="Programming Language"/>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -619,7 +619,7 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
@@ -681,7 +681,7 @@
         <v>43</v>
       </c>
       <c r="F12">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
@@ -803,7 +803,7 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
         <v>33</v>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B04CCE-7E54-4733-A8FC-7AE578A5D645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014E5273-27F8-4607-9101-0C6E45B72FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>Count</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>skip tests</t>
   </si>
 </sst>
 </file>
@@ -246,8 +249,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}" name="Table13" displayName="Table13" ref="E3:F23" totalsRowShown="0">
-  <autoFilter ref="E3:F23" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}" name="Table13" displayName="Table13" ref="E3:F24" totalsRowShown="0">
+  <autoFilter ref="E3:F24" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{5D3E98C6-B9C7-4DB9-B67A-0ED3228E11E1}" name="RQ2: Fix for Flakiness?"/>
     <tableColumn id="2" xr3:uid="{829AB046-7D25-4B45-ADCD-65F6668ED8A6}" name="Count"/>
@@ -532,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -591,7 +594,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
@@ -775,7 +778,7 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
         <v>35</v>
@@ -832,6 +835,12 @@
       </c>
       <c r="C24">
         <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014E5273-27F8-4607-9101-0C6E45B72FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5B6887-2F54-4220-8695-80511CBAEB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -628,7 +628,7 @@
         <v>30</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
@@ -706,7 +706,7 @@
         <v>26</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
         <v>41</v>
@@ -856,7 +856,7 @@
         <v>17</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5B6887-2F54-4220-8695-80511CBAEB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17502B56-AF6A-4E36-9292-A437A4F0ABAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -622,7 +622,7 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
@@ -712,7 +712,7 @@
         <v>41</v>
       </c>
       <c r="F14">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
@@ -856,7 +856,7 @@
         <v>17</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17502B56-AF6A-4E36-9292-A437A4F0ABAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FCC241-1501-49DD-84B8-549B886AB57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -628,7 +628,7 @@
         <v>30</v>
       </c>
       <c r="F8">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
@@ -706,7 +706,7 @@
         <v>26</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
         <v>41</v>
@@ -792,7 +792,7 @@
         <v>8</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
         <v>34</v>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FCC241-1501-49DD-84B8-549B886AB57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36E6D12-EEB9-46F8-8583-6E795A9DEF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -260,7 +260,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5DC2FD8C-971C-4E9C-B125-F25DCFBD1121}" name="Table3" displayName="Table3" ref="B17:C31" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5DC2FD8C-971C-4E9C-B125-F25DCFBD1121}" name="Table3" displayName="Table3" ref="B17:C30" totalsRowShown="0">
   <autoFilter ref="B17:C30" xr:uid="{5DC2FD8C-971C-4E9C-B125-F25DCFBD1121}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F0068822-083B-4BDB-99B5-6ACC44D4E438}" name="Programming Language"/>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -650,7 +650,7 @@
         <v>21</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
         <v>32</v>
@@ -720,7 +720,7 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
@@ -856,7 +856,7 @@
         <v>17</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36E6D12-EEB9-46F8-8583-6E795A9DEF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEA6102-A51F-477F-945E-A0A7152B94AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -622,7 +622,7 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
@@ -712,7 +712,7 @@
         <v>41</v>
       </c>
       <c r="F14">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
@@ -856,7 +856,7 @@
         <v>17</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEA6102-A51F-477F-945E-A0A7152B94AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414F7025-A681-4693-9BD8-79E9DDBA59EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>Count</t>
   </si>
@@ -183,6 +183,30 @@
   </si>
   <si>
     <t>skip tests</t>
+  </si>
+  <si>
+    <t>incorrect program logic</t>
+  </si>
+  <si>
+    <t>algorithmic flakiness</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>async wait</t>
+  </si>
+  <si>
+    <t>unordered collections</t>
+  </si>
+  <si>
+    <t>concurrency</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>arithmetic/bit operations</t>
   </si>
 </sst>
 </file>
@@ -533,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:F30"/>
+  <dimension ref="B3:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -547,7 +571,7 @@
     <col min="6" max="6" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -561,7 +585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -574,8 +598,14 @@
       <c r="F4">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -588,8 +618,14 @@
       <c r="F5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -602,8 +638,14 @@
       <c r="F6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -616,8 +658,14 @@
       <c r="F7">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -630,8 +678,14 @@
       <c r="F8">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -644,8 +698,14 @@
       <c r="F9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -658,8 +718,14 @@
       <c r="F10">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>22</v>
       </c>
@@ -672,8 +738,14 @@
       <c r="F11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>24</v>
       </c>
@@ -687,7 +759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -701,7 +773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>26</v>
       </c>
@@ -715,7 +787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
         <v>40</v>
       </c>
@@ -723,7 +795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
         <v>39</v>
       </c>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414F7025-A681-4693-9BD8-79E9DDBA59EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC99348-F92A-4801-9211-B454B943072C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Count</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Python</t>
   </si>
   <si>
-    <t>Order of Events</t>
-  </si>
-  <si>
     <t>JavaScript</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>C#</t>
   </si>
   <si>
-    <t>Delay</t>
-  </si>
-  <si>
     <t>Go</t>
   </si>
   <si>
@@ -110,15 +104,9 @@
     <t>Rust</t>
   </si>
   <si>
-    <t>Comparisons</t>
-  </si>
-  <si>
     <t>Algorithmic Flakiness</t>
   </si>
   <si>
-    <t>Incorrect Logic</t>
-  </si>
-  <si>
     <t>relax acceptance/tolerance</t>
   </si>
   <si>
@@ -185,28 +173,7 @@
     <t>skip tests</t>
   </si>
   <si>
-    <t>incorrect program logic</t>
-  </si>
-  <si>
-    <t>algorithmic flakiness</t>
-  </si>
-  <si>
-    <t>environment</t>
-  </si>
-  <si>
-    <t>async wait</t>
-  </si>
-  <si>
-    <t>unordered collections</t>
-  </si>
-  <si>
-    <t>concurrency</t>
-  </si>
-  <si>
-    <t>memory</t>
-  </si>
-  <si>
-    <t>arithmetic/bit operations</t>
+    <t>Incorrect Program Logic</t>
   </si>
 </sst>
 </file>
@@ -557,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:K30"/>
+  <dimension ref="B3:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -571,7 +538,7 @@
     <col min="6" max="6" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -585,7 +552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -593,211 +560,145 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
-      <c r="H5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
-      <c r="H6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F7">
         <v>8</v>
       </c>
-      <c r="H7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7">
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>21</v>
-      </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F8">
         <v>31</v>
       </c>
-      <c r="H8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F9">
         <v>4</v>
       </c>
-      <c r="H9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F10">
         <v>11</v>
       </c>
-      <c r="H10" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="H11" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F12">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13">
-        <v>14</v>
-      </c>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14">
-        <v>30</v>
-      </c>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -811,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -825,7 +726,7 @@
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -839,7 +740,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -853,7 +754,7 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -867,7 +768,7 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -875,13 +776,13 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -889,13 +790,13 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -903,13 +804,13 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24">
         <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -917,7 +818,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25">
         <v>10</v>
@@ -925,7 +826,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C26">
         <v>20</v>
@@ -933,7 +834,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C27">
         <v>9</v>
@@ -941,7 +842,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -949,7 +850,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -957,7 +858,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C30">
         <v>2</v>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knkes\Documents\UT Austin\Semesters\Fall 2022\ECE 382V\ECE382V_An_Empirical_Analysis_of_Flaky_Tests_In_Industry_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC99348-F92A-4801-9211-B454B943072C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E73D7BC-BA26-4511-920F-F36FFFECA49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Count</t>
   </si>
@@ -44,9 +44,6 @@
     <t>RQ1: Cause of Flakiness?</t>
   </si>
   <si>
-    <t>RQ2: Fix for Flakiness?</t>
-  </si>
-  <si>
     <t>Programming Language</t>
   </si>
   <si>
@@ -107,60 +104,15 @@
     <t>Algorithmic Flakiness</t>
   </si>
   <si>
-    <t>relax acceptance/tolerance</t>
-  </si>
-  <si>
     <t>deallocate unused space</t>
   </si>
   <si>
-    <t>implement event ordering</t>
-  </si>
-  <si>
     <t>refactor program logic</t>
   </si>
   <si>
-    <t>setup state</t>
-  </si>
-  <si>
-    <t>tear down state after shutdown</t>
-  </si>
-  <si>
-    <t>no hardcoded values</t>
-  </si>
-  <si>
-    <t>same type</t>
-  </si>
-  <si>
     <t>remove dependencies</t>
   </si>
   <si>
-    <t>Promise statement</t>
-  </si>
-  <si>
-    <t>update global state</t>
-  </si>
-  <si>
-    <t>bit clear</t>
-  </si>
-  <si>
-    <t>limit elements</t>
-  </si>
-  <si>
-    <t>sort / establish ordering</t>
-  </si>
-  <si>
-    <t>add custom delay / wait</t>
-  </si>
-  <si>
-    <t>added memory for test</t>
-  </si>
-  <si>
-    <t>added waitFor</t>
-  </si>
-  <si>
-    <t>locks</t>
-  </si>
-  <si>
     <t>update dependencies</t>
   </si>
   <si>
@@ -174,6 +126,48 @@
   </si>
   <si>
     <t>Incorrect Program Logic</t>
+  </si>
+  <si>
+    <t>RQ2: Fix for Flakiness? Category</t>
+  </si>
+  <si>
+    <t>Subcategory</t>
+  </si>
+  <si>
+    <t>Delay</t>
+  </si>
+  <si>
+    <t>custom delay timeout</t>
+  </si>
+  <si>
+    <t>Refactor Tests</t>
+  </si>
+  <si>
+    <t>Test Memory</t>
+  </si>
+  <si>
+    <t>relax assert tolerance</t>
+  </si>
+  <si>
+    <t>add memory for test</t>
+  </si>
+  <si>
+    <t>Temporary "Fix"</t>
+  </si>
+  <si>
+    <t>Dependency</t>
+  </si>
+  <si>
+    <t>setup test state</t>
+  </si>
+  <si>
+    <t>tear down test state</t>
+  </si>
+  <si>
+    <t>added waitFor()</t>
+  </si>
+  <si>
+    <t>establish event ordering</t>
   </si>
 </sst>
 </file>
@@ -229,8 +223,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B2608637-C130-4393-ABCD-A6A790E1F84A}" name="Table1" displayName="Table1" ref="B3:C15" totalsRowShown="0">
-  <autoFilter ref="B3:C15" xr:uid="{B2608637-C130-4393-ABCD-A6A790E1F84A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B2608637-C130-4393-ABCD-A6A790E1F84A}" name="Table1" displayName="Table1" ref="B3:C11" totalsRowShown="0">
+  <autoFilter ref="B3:C11" xr:uid="{B2608637-C130-4393-ABCD-A6A790E1F84A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{587C579E-36BB-4E18-8383-3274037924AE}" name="RQ1: Cause of Flakiness?"/>
     <tableColumn id="2" xr3:uid="{610F1FAF-8A7C-411F-A63E-63F53C704DC1}" name="Count"/>
@@ -240,22 +234,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}" name="Table13" displayName="Table13" ref="E3:F24" totalsRowShown="0">
-  <autoFilter ref="E3:F24" xr:uid="{4AF1DB72-6A4C-4B94-B13D-D91A4515B672}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5DC2FD8C-971C-4E9C-B125-F25DCFBD1121}" name="Table3" displayName="Table3" ref="B17:C30" totalsRowShown="0">
+  <autoFilter ref="B17:C30" xr:uid="{5DC2FD8C-971C-4E9C-B125-F25DCFBD1121}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5D3E98C6-B9C7-4DB9-B67A-0ED3228E11E1}" name="RQ2: Fix for Flakiness?"/>
-    <tableColumn id="2" xr3:uid="{829AB046-7D25-4B45-ADCD-65F6668ED8A6}" name="Count"/>
+    <tableColumn id="1" xr3:uid="{F0068822-083B-4BDB-99B5-6ACC44D4E438}" name="Programming Language"/>
+    <tableColumn id="2" xr3:uid="{840AB94B-1139-41EF-B336-F06393B2838D}" name="Count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5DC2FD8C-971C-4E9C-B125-F25DCFBD1121}" name="Table3" displayName="Table3" ref="B17:C30" totalsRowShown="0">
-  <autoFilter ref="B17:C30" xr:uid="{5DC2FD8C-971C-4E9C-B125-F25DCFBD1121}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F0068822-083B-4BDB-99B5-6ACC44D4E438}" name="Programming Language"/>
-    <tableColumn id="2" xr3:uid="{840AB94B-1139-41EF-B336-F06393B2838D}" name="Count"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9671EB90-DE9A-4FAD-B0E5-ADC6175A6E94}" name="Table1356" displayName="Table1356" ref="E3:G16" totalsRowShown="0">
+  <autoFilter ref="E3:G16" xr:uid="{9671EB90-DE9A-4FAD-B0E5-ADC6175A6E94}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{BF6AFA7C-5765-4DF3-81D1-70578351B288}" name="RQ2: Fix for Flakiness? Category"/>
+    <tableColumn id="3" xr3:uid="{9189C7A0-C47A-4CFB-98EF-5E7E7FCE55FB}" name="Subcategory"/>
+    <tableColumn id="2" xr3:uid="{D1891CBD-0FC0-4ABB-9D27-9B9DC0A8FC06}" name="Count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -524,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:F30"/>
+  <dimension ref="B3:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -535,10 +530,10 @@
     <col min="2" max="2" width="30.90625" customWidth="1"/>
     <col min="3" max="3" width="14.54296875" customWidth="1"/>
     <col min="5" max="5" width="30.90625" customWidth="1"/>
-    <col min="6" max="6" width="14.6328125" customWidth="1"/>
+    <col min="6" max="6" width="23.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -546,319 +541,289 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>34</v>
       </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>38</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
       </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>6</v>
       </c>
-      <c r="E18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>10</v>
       </c>
-      <c r="E19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>12</v>
       </c>
-      <c r="E20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>15</v>
       </c>
-      <c r="E21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>9</v>
       </c>
-      <c r="E22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>14</v>
       </c>
-      <c r="E23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24">
         <v>21</v>
       </c>
-      <c r="E24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C30">
         <v>2</v>
